--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3416.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3416.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eoin Joseph Gerard Morgan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2498</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2599</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2601</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2606</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2610</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2616</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2642</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2646</t>
+          <t>2646</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2658</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2669</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2673</t>
+          <t>2673</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2677</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2679</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2682</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2711</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2714</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2715</t>
+          <t>2715</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2805</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2806</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2807</t>
+          <t>2807</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2952</t>
+          <t>2952</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2958</t>
+          <t>2958</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3010</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3012</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3015</t>
+          <t>3015</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3017</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3018</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3019</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3023</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3032</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2323,7 +2388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3058</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2375,7 +2440,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2427,7 +2492,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2479,7 +2544,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3094</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2531,7 +2596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3095</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2583,7 +2648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3098</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2635,7 +2700,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2687,7 +2752,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2739,7 +2804,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3131</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2791,7 +2856,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3133</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2843,7 +2908,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3134</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2895,7 +2960,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3141</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,7 +3012,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2999,7 +3064,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3051,7 +3116,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3156</t>
+          <t>3156</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3103,7 +3168,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3155,7 +3220,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3207,7 +3272,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3259,7 +3324,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3311,7 +3376,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3363,7 +3428,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3216</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3415,7 +3480,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3218</t>
+          <t>3218</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3467,7 +3532,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3221</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3519,7 +3584,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3224</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3571,7 +3636,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3226</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3623,7 +3688,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3229</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3675,7 +3740,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3727,7 +3792,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3779,7 +3844,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3280</t>
+          <t>3280</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3831,7 +3896,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3883,7 +3948,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3935,7 +4000,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3975,7 +4040,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -3983,7 +4047,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4035,7 +4099,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3305</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4087,7 +4151,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4127,7 +4191,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -4135,7 +4198,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4187,7 +4250,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4239,7 +4302,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4291,7 +4354,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4343,7 +4406,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4395,7 +4458,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4435,7 +4498,6 @@
           <t>77</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>19/06/2012</t>
@@ -4443,7 +4505,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4495,7 +4557,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4547,7 +4609,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4587,7 +4649,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -4595,7 +4656,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4647,7 +4708,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4687,7 +4748,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -4695,7 +4755,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3436</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4747,7 +4807,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3438</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4799,7 +4859,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4851,7 +4911,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4903,7 +4963,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4955,7 +5015,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5007,7 +5067,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5059,7 +5119,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5111,7 +5171,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5163,7 +5223,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5215,7 +5275,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5255,7 +5315,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -5263,7 +5322,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5315,7 +5374,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5367,7 +5426,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5419,7 +5478,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5471,7 +5530,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5523,7 +5582,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5575,7 +5634,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5627,7 +5686,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5679,7 +5738,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5731,7 +5790,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5783,7 +5842,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5835,7 +5894,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5887,7 +5946,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5939,7 +5998,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5991,7 +6050,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6043,7 +6102,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6095,7 +6154,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6147,7 +6206,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6199,7 +6258,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6251,7 +6310,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6303,7 +6362,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6355,7 +6414,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6407,7 +6466,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6459,7 +6518,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6499,7 +6558,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -6507,7 +6565,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6559,7 +6617,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6611,7 +6669,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6663,7 +6721,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6715,7 +6773,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6767,7 +6825,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6819,7 +6877,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6871,7 +6929,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6923,7 +6981,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6975,7 +7033,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7027,7 +7085,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7079,7 +7137,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7131,7 +7189,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7183,7 +7241,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7235,7 +7293,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7275,7 +7333,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -7283,7 +7340,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7335,7 +7392,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7387,7 +7444,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7439,7 +7496,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7491,7 +7548,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7543,7 +7600,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7595,7 +7652,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7647,7 +7704,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7699,7 +7756,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7739,7 +7796,6 @@
           <t>141</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -7747,7 +7803,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7799,7 +7855,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7851,7 +7907,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7903,7 +7959,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7955,7 +8011,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8007,7 +8063,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8059,7 +8115,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8111,7 +8167,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8163,7 +8219,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8215,7 +8271,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8267,7 +8323,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8319,7 +8375,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8371,7 +8427,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8423,7 +8479,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8475,7 +8531,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8527,7 +8583,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8579,7 +8635,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8631,7 +8687,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8683,7 +8739,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8735,7 +8791,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8787,7 +8843,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8827,7 +8883,6 @@
           <t>162</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -8835,7 +8890,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8875,7 +8930,6 @@
           <t>163</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -8883,7 +8937,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8935,7 +8989,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8987,7 +9041,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9039,7 +9093,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9091,7 +9145,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9143,7 +9197,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9195,7 +9249,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9247,7 +9301,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9299,7 +9353,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9351,7 +9405,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9403,7 +9457,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9455,7 +9509,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9507,7 +9561,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9559,7 +9613,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9611,7 +9665,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9663,7 +9717,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9715,7 +9769,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9767,7 +9821,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9819,7 +9873,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9871,7 +9925,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9923,7 +9977,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9975,7 +10029,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10027,7 +10081,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10079,7 +10133,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10119,7 +10173,6 @@
           <t>187</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -10127,7 +10180,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -10179,7 +10232,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -10231,7 +10284,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -10271,7 +10324,6 @@
           <t>190</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -10279,7 +10331,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -10331,7 +10383,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -10383,7 +10435,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10435,7 +10487,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10487,7 +10539,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10539,7 +10591,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -10591,7 +10643,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -10643,7 +10695,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -10695,7 +10747,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -10747,7 +10799,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -10799,7 +10851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -10851,7 +10903,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -10903,7 +10955,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -10955,7 +11007,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -11007,7 +11059,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -11059,7 +11111,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -11111,7 +11163,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -11163,7 +11215,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -11215,7 +11267,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -11267,7 +11319,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -11319,7 +11371,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -11371,7 +11423,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -11423,7 +11475,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -11475,7 +11527,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -11527,7 +11579,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -11567,7 +11619,6 @@
           <t>215</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -11575,7 +11626,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -11627,7 +11678,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -11679,7 +11730,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -11731,7 +11782,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -11771,7 +11822,6 @@
           <t>219</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -11779,7 +11829,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -11831,7 +11881,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -11883,7 +11933,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -11935,7 +11985,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -11987,7 +12037,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -12039,7 +12089,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -12091,7 +12141,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -12131,7 +12181,6 @@
           <t>226</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -12139,7 +12188,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -12191,7 +12240,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -12243,7 +12292,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -12295,7 +12344,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -12347,7 +12396,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -12399,7 +12448,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -12451,7 +12500,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -12503,7 +12552,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -12555,7 +12604,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -12595,7 +12644,6 @@
           <t>235</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -12603,7 +12651,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -12655,7 +12703,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -12707,7 +12755,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -12759,7 +12807,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -12811,7 +12859,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -12863,7 +12911,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -12915,7 +12963,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -12967,7 +13015,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -13019,7 +13067,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -13071,7 +13119,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -13123,7 +13171,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -13163,7 +13211,6 @@
           <t>246</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -13171,7 +13218,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -13223,7 +13270,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -13275,7 +13322,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -13306,6 +13353,527 @@
       <c r="J249" t="inlineStr">
         <is>
           <t>7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>19.91%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.32%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.36%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7.62%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.76%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.74%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3416.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3416.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F247" t="inlineStr">

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3416.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3416.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4040,6 +4039,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -4191,6 +4191,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -4498,6 +4499,7 @@
           <t>77</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
           <t>19/06/2012</t>
@@ -4649,6 +4651,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -4748,6 +4751,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -5315,6 +5319,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -6558,6 +6563,7 @@
           <t>117</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -7333,6 +7339,7 @@
           <t>132</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -7796,6 +7803,7 @@
           <t>141</t>
         </is>
       </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -8883,6 +8891,7 @@
           <t>162</t>
         </is>
       </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -8930,6 +8939,7 @@
           <t>163</t>
         </is>
       </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -10173,6 +10183,7 @@
           <t>187</t>
         </is>
       </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -10324,6 +10335,7 @@
           <t>190</t>
         </is>
       </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -11619,6 +11631,7 @@
           <t>215</t>
         </is>
       </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -11822,6 +11835,7 @@
           <t>219</t>
         </is>
       </c>
+      <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -12181,6 +12195,7 @@
           <t>226</t>
         </is>
       </c>
+      <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -12644,6 +12659,7 @@
           <t>235</t>
         </is>
       </c>
+      <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -13211,6 +13227,7 @@
           <t>246</t>
         </is>
       </c>
+      <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -13353,527 +13370,6 @@
       <c r="J249" t="inlineStr">
         <is>
           <t>7</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.81%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.30%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>19.91%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4426</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4427</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>32.32%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.36%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>18.18%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.62%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.76%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.17%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.74%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
